--- a/outline_testing/map_test_data.xlsx
+++ b/outline_testing/map_test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Ellison\Desktop\CodeForGood\outline_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3B0D78-A534-420F-BDF7-7A6D77DC85BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9297D475-FE37-460D-922A-F5B2D4FD115D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="3885" windowWidth="18225" windowHeight="11422" xr2:uid="{D5CD3BF6-7BDC-4B99-BDC7-1E82915A4C9A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{D5CD3BF6-7BDC-4B99-BDC7-1E82915A4C9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1265,9 +1265,6 @@
 781 397-7139</t>
   </si>
   <si>
-    <t xml:space="preserve">Manchester-by-the-Sea </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mansfield </t>
   </si>
   <si>
@@ -1554,9 +1551,6 @@
   </si>
   <si>
     <t xml:space="preserve">North Andover </t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Attleboro </t>
   </si>
   <si>
     <t>Rebecca Jennings
@@ -2491,6 +2485,12 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester </t>
+  </si>
+  <si>
+    <t>North Attleborough</t>
   </si>
 </sst>
 </file>
@@ -2965,8 +2965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE39C63-2E3D-4C18-AAF5-D0A4B6862FF8}">
   <dimension ref="A1:D352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4970,7 +4970,7 @@
         <v>246</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C143">
         <v>490</v>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="167" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A167" s="6" t="s">
-        <v>286</v>
+        <v>582</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>191</v>
@@ -5317,10 +5317,10 @@
     </row>
     <row r="168" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A168" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B168" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="C168">
         <v>123</v>
@@ -5331,10 +5331,10 @@
     </row>
     <row r="169" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A169" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B169" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="C169">
         <v>53</v>
@@ -5345,10 +5345,10 @@
     </row>
     <row r="170" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A170" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B170" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="C170">
         <v>492</v>
@@ -5359,10 +5359,10 @@
     </row>
     <row r="171" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A171" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B171" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="C171">
         <v>986</v>
@@ -5373,10 +5373,10 @@
     </row>
     <row r="172" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A172" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B172" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="C172">
         <v>1222</v>
@@ -5387,7 +5387,7 @@
     </row>
     <row r="173" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A173" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>45</v>
@@ -5401,10 +5401,10 @@
     </row>
     <row r="174" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A174" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C174">
         <v>3928</v>
@@ -5415,10 +5415,10 @@
     </row>
     <row r="175" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A175" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B175" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="C175">
         <v>2345</v>
@@ -5429,10 +5429,10 @@
     </row>
     <row r="176" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A176" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B176" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="C176">
         <v>3643</v>
@@ -5443,10 +5443,10 @@
     </row>
     <row r="177" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A177" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B177" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="C177">
         <v>1112</v>
@@ -5457,7 +5457,7 @@
     </row>
     <row r="178" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A178" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>33</v>
@@ -5471,10 +5471,10 @@
     </row>
     <row r="179" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A179" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B179" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="C179">
         <v>500</v>
@@ -5485,10 +5485,10 @@
     </row>
     <row r="180" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A180" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B180" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="C180">
         <v>322</v>
@@ -5499,10 +5499,10 @@
     </row>
     <row r="181" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A181" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B181" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="C181">
         <v>690</v>
@@ -5513,10 +5513,10 @@
     </row>
     <row r="182" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A182" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B182" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="C182">
         <v>706</v>
@@ -5527,10 +5527,10 @@
     </row>
     <row r="183" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A183" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B183" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="C183">
         <v>650</v>
@@ -5541,7 +5541,7 @@
     </row>
     <row r="184" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A184" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>19</v>
@@ -5555,10 +5555,10 @@
     </row>
     <row r="185" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A185" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B185" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="C185">
         <v>1000</v>
@@ -5569,10 +5569,10 @@
     </row>
     <row r="186" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A186" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B186" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="C186">
         <v>1500</v>
@@ -5583,7 +5583,7 @@
     </row>
     <row r="187" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A187" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>187</v>
@@ -5597,10 +5597,10 @@
     </row>
     <row r="188" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A188" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B188" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="C188">
         <v>582</v>
@@ -5611,10 +5611,10 @@
     </row>
     <row r="189" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A189" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B189" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="C189">
         <v>799</v>
@@ -5625,10 +5625,10 @@
     </row>
     <row r="190" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A190" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B190" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="C190">
         <v>943</v>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="191" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A191" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>31</v>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="192" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A192" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>156</v>
@@ -5667,7 +5667,7 @@
     </row>
     <row r="193" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A193" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>31</v>
@@ -5681,7 +5681,7 @@
     </row>
     <row r="194" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A194" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>15</v>
@@ -5695,10 +5695,10 @@
     </row>
     <row r="195" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A195" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B195" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="C195">
         <v>103</v>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="196" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A196" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>15</v>
@@ -5723,10 +5723,10 @@
     </row>
     <row r="197" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A197" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B197" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="C197">
         <v>236</v>
@@ -5737,10 +5737,10 @@
     </row>
     <row r="198" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A198" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B198" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="C198">
         <v>236</v>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="199" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A199" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>143</v>
@@ -5765,10 +5765,10 @@
     </row>
     <row r="200" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A200" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B200" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="C200">
         <v>348</v>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="201" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A201" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>119</v>
@@ -5793,10 +5793,10 @@
     </row>
     <row r="202" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A202" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B202" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="C202">
         <v>692</v>
@@ -5807,10 +5807,10 @@
     </row>
     <row r="203" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A203" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B203" s="10" t="s">
         <v>345</v>
-      </c>
-      <c r="B203" s="10" t="s">
-        <v>346</v>
       </c>
       <c r="C203">
         <v>1236</v>
@@ -5821,7 +5821,7 @@
     </row>
     <row r="204" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A204" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B204" s="7" t="s">
         <v>15</v>
@@ -5835,7 +5835,7 @@
     </row>
     <row r="205" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A205" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>31</v>
@@ -5849,7 +5849,7 @@
     </row>
     <row r="206" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A206" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>166</v>
@@ -5863,10 +5863,10 @@
     </row>
     <row r="207" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A207" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C207">
         <v>433</v>
@@ -5877,10 +5877,10 @@
     </row>
     <row r="208" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A208" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B208" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="B208" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="C208">
         <v>699</v>
@@ -5891,10 +5891,10 @@
     </row>
     <row r="209" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A209" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B209" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="C209">
         <v>954</v>
@@ -5905,7 +5905,7 @@
     </row>
     <row r="210" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A210" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>119</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="211" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A211" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>78</v>
@@ -5933,10 +5933,10 @@
     </row>
     <row r="212" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A212" s="6" t="s">
-        <v>357</v>
+        <v>583</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C212">
         <v>775</v>
@@ -5947,10 +5947,10 @@
     </row>
     <row r="213" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A213" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C213">
         <v>422</v>
@@ -5961,10 +5961,10 @@
     </row>
     <row r="214" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A214" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C214">
         <v>9400</v>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="215" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A215" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>19</v>
@@ -5989,7 +5989,7 @@
     </row>
     <row r="216" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A216" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B216" s="7" t="s">
         <v>195</v>
@@ -6003,7 +6003,7 @@
     </row>
     <row r="217" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A217" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>141</v>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="218" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A218" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>31</v>
@@ -6031,10 +6031,10 @@
     </row>
     <row r="219" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A219" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C219">
         <v>6943</v>
@@ -6045,10 +6045,10 @@
     </row>
     <row r="220" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A220" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C220">
         <v>369</v>
@@ -6059,10 +6059,10 @@
     </row>
     <row r="221" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A221" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C221">
         <v>7844</v>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="222" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A222" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>23</v>
@@ -6087,10 +6087,10 @@
     </row>
     <row r="223" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A223" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C223">
         <v>124</v>
@@ -6101,7 +6101,7 @@
     </row>
     <row r="224" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A224" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B224" s="7" t="s">
         <v>35</v>
@@ -6115,7 +6115,7 @@
     </row>
     <row r="225" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A225" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B225" s="7" t="s">
         <v>45</v>
@@ -6129,7 +6129,7 @@
     </row>
     <row r="226" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A226" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B226" s="7" t="s">
         <v>15</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="227" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A227" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B227" s="7" t="s">
         <v>39</v>
@@ -6157,10 +6157,10 @@
     </row>
     <row r="228" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A228" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C228">
         <v>344</v>
@@ -6171,10 +6171,10 @@
     </row>
     <row r="229" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A229" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C229">
         <v>283</v>
@@ -6185,10 +6185,10 @@
     </row>
     <row r="230" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A230" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C230">
         <v>5832</v>
@@ -6199,7 +6199,7 @@
     </row>
     <row r="231" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A231" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B231" s="7" t="s">
         <v>19</v>
@@ -6213,10 +6213,10 @@
     </row>
     <row r="232" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A232" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C232">
         <v>568</v>
@@ -6227,7 +6227,7 @@
     </row>
     <row r="233" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A233" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B233" s="7" t="s">
         <v>29</v>
@@ -6241,10 +6241,10 @@
     </row>
     <row r="234" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A234" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C234">
         <v>849</v>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="235" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A235" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>35</v>
@@ -6269,7 +6269,7 @@
     </row>
     <row r="236" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A236" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B236" s="7" t="s">
         <v>35</v>
@@ -6283,10 +6283,10 @@
     </row>
     <row r="237" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A237" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C237">
         <v>6748</v>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="238" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A238" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>31</v>
@@ -6311,10 +6311,10 @@
     </row>
     <row r="239" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A239" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C239">
         <v>1067</v>
@@ -6325,10 +6325,10 @@
     </row>
     <row r="240" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A240" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C240">
         <v>1054</v>
@@ -6339,10 +6339,10 @@
     </row>
     <row r="241" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A241" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C241">
         <v>1220</v>
@@ -6353,10 +6353,10 @@
     </row>
     <row r="242" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A242" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C242">
         <v>1542</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="243" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A243" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B243" s="7" t="s">
         <v>45</v>
@@ -6381,10 +6381,10 @@
     </row>
     <row r="244" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A244" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C244">
         <v>940</v>
@@ -6395,10 +6395,10 @@
     </row>
     <row r="245" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A245" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C245">
         <v>1102</v>
@@ -6409,10 +6409,10 @@
     </row>
     <row r="246" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A246" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C246">
         <v>21390</v>
@@ -6423,10 +6423,10 @@
     </row>
     <row r="247" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A247" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C247">
         <v>2342</v>
@@ -6437,10 +6437,10 @@
     </row>
     <row r="248" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A248" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C248">
         <v>2384</v>
@@ -6451,10 +6451,10 @@
     </row>
     <row r="249" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A249" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C249">
         <v>573</v>
@@ -6465,10 +6465,10 @@
     </row>
     <row r="250" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A250" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C250">
         <v>2839</v>
@@ -6479,10 +6479,10 @@
     </row>
     <row r="251" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A251" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C251">
         <v>219</v>
@@ -6493,10 +6493,10 @@
     </row>
     <row r="252" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A252" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C252">
         <v>573</v>
@@ -6507,10 +6507,10 @@
     </row>
     <row r="253" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A253" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C253">
         <v>2011</v>
@@ -6521,7 +6521,7 @@
     </row>
     <row r="254" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A254" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B254" s="7" t="s">
         <v>31</v>
@@ -6535,7 +6535,7 @@
     </row>
     <row r="255" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A255" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B255" s="7" t="s">
         <v>166</v>
@@ -6549,7 +6549,7 @@
     </row>
     <row r="256" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A256" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B256" s="7" t="s">
         <v>35</v>
@@ -6563,7 +6563,7 @@
     </row>
     <row r="257" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A257" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B257" s="7" t="s">
         <v>13</v>
@@ -6577,10 +6577,10 @@
     </row>
     <row r="258" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A258" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C258">
         <v>763</v>
@@ -6591,10 +6591,10 @@
     </row>
     <row r="259" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A259" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C259">
         <v>1842</v>
@@ -6605,10 +6605,10 @@
     </row>
     <row r="260" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A260" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C260">
         <v>1249</v>
@@ -6619,7 +6619,7 @@
     </row>
     <row r="261" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A261" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B261" s="7" t="s">
         <v>15</v>
@@ -6633,7 +6633,7 @@
     </row>
     <row r="262" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A262" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B262" s="7" t="s">
         <v>45</v>
@@ -6647,10 +6647,10 @@
     </row>
     <row r="263" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A263" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C263">
         <v>299</v>
@@ -6661,7 +6661,7 @@
     </row>
     <row r="264" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A264" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B264" s="7" t="s">
         <v>119</v>
@@ -6675,10 +6675,10 @@
     </row>
     <row r="265" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A265" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C265">
         <v>567</v>
@@ -6689,10 +6689,10 @@
     </row>
     <row r="266" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A266" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C266">
         <v>823</v>
@@ -6703,10 +6703,10 @@
     </row>
     <row r="267" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A267" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C267">
         <v>734</v>
@@ -6717,7 +6717,7 @@
     </row>
     <row r="268" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A268" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>15</v>
@@ -6731,7 +6731,7 @@
     </row>
     <row r="269" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A269" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B269" s="7" t="s">
         <v>31</v>
@@ -6745,10 +6745,10 @@
     </row>
     <row r="270" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A270" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C270">
         <v>1200</v>
@@ -6759,10 +6759,10 @@
     </row>
     <row r="271" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A271" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C271">
         <v>1300</v>
@@ -6773,10 +6773,10 @@
     </row>
     <row r="272" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A272" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C272">
         <v>853</v>
@@ -6787,7 +6787,7 @@
     </row>
     <row r="273" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A273" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B273" s="7" t="s">
         <v>31</v>
@@ -6801,10 +6801,10 @@
     </row>
     <row r="274" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A274" s="11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C274">
         <v>485</v>
@@ -6815,10 +6815,10 @@
     </row>
     <row r="275" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A275" s="11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C275">
         <v>234</v>
@@ -6829,10 +6829,10 @@
     </row>
     <row r="276" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A276" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C276">
         <v>1235</v>
@@ -6843,10 +6843,10 @@
     </row>
     <row r="277" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A277" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C277">
         <v>238</v>
@@ -6857,10 +6857,10 @@
     </row>
     <row r="278" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A278" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C278">
         <v>934</v>
@@ -6871,7 +6871,7 @@
     </row>
     <row r="279" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A279" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B279" s="7" t="s">
         <v>39</v>
@@ -6885,7 +6885,7 @@
     </row>
     <row r="280" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A280" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B280" s="7" t="s">
         <v>13</v>
@@ -6899,10 +6899,10 @@
     </row>
     <row r="281" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A281" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C281">
         <v>695</v>
@@ -6913,10 +6913,10 @@
     </row>
     <row r="282" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A282" s="11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C282">
         <v>328</v>
@@ -6927,7 +6927,7 @@
     </row>
     <row r="283" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A283" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B283" s="7" t="s">
         <v>255</v>
@@ -6941,7 +6941,7 @@
     </row>
     <row r="284" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A284" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B284" s="7" t="s">
         <v>15</v>
@@ -6955,10 +6955,10 @@
     </row>
     <row r="285" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A285" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C285">
         <v>238</v>
@@ -6969,10 +6969,10 @@
     </row>
     <row r="286" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A286" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C286">
         <v>503</v>
@@ -6983,10 +6983,10 @@
     </row>
     <row r="287" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A287" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C287">
         <v>6890</v>
@@ -6997,10 +6997,10 @@
     </row>
     <row r="288" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A288" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C288">
         <v>3092</v>
@@ -7011,10 +7011,10 @@
     </row>
     <row r="289" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A289" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C289">
         <v>5930</v>
@@ -7025,7 +7025,7 @@
     </row>
     <row r="290" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A290" s="11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B290" s="7" t="s">
         <v>31</v>
@@ -7039,7 +7039,7 @@
     </row>
     <row r="291" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A291" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B291" s="7" t="s">
         <v>141</v>
@@ -7053,10 +7053,10 @@
     </row>
     <row r="292" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A292" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C292">
         <v>372</v>
@@ -7067,10 +7067,10 @@
     </row>
     <row r="293" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A293" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C293">
         <v>1237</v>
@@ -7081,10 +7081,10 @@
     </row>
     <row r="294" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A294" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C294">
         <v>537</v>
@@ -7095,10 +7095,10 @@
     </row>
     <row r="295" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A295" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C295">
         <v>482</v>
@@ -7109,10 +7109,10 @@
     </row>
     <row r="296" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A296" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C296">
         <v>583</v>
@@ -7123,7 +7123,7 @@
     </row>
     <row r="297" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A297" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B297" s="7" t="s">
         <v>23</v>
@@ -7137,7 +7137,7 @@
     </row>
     <row r="298" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A298" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B298" s="7" t="s">
         <v>13</v>
@@ -7151,10 +7151,10 @@
     </row>
     <row r="299" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A299" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C299">
         <v>1921</v>
@@ -7165,10 +7165,10 @@
     </row>
     <row r="300" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A300" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C300">
         <v>290</v>
@@ -7179,7 +7179,7 @@
     </row>
     <row r="301" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A301" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B301" s="7" t="s">
         <v>45</v>
@@ -7193,10 +7193,10 @@
     </row>
     <row r="302" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A302" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C302">
         <v>1000</v>
@@ -7207,7 +7207,7 @@
     </row>
     <row r="303" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A303" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B303" s="7" t="s">
         <v>15</v>
@@ -7221,10 +7221,10 @@
     </row>
     <row r="304" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A304" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C304">
         <v>1482</v>
@@ -7235,7 +7235,7 @@
     </row>
     <row r="305" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A305" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B305" s="7" t="s">
         <v>141</v>
@@ -7249,10 +7249,10 @@
     </row>
     <row r="306" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A306" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C306">
         <v>683</v>
@@ -7263,7 +7263,7 @@
     </row>
     <row r="307" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A307" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B307" s="7" t="s">
         <v>156</v>
@@ -7277,10 +7277,10 @@
     </row>
     <row r="308" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A308" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C308">
         <v>609</v>
@@ -7291,10 +7291,10 @@
     </row>
     <row r="309" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A309" s="11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C309">
         <v>784</v>
@@ -7305,7 +7305,7 @@
     </row>
     <row r="310" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A310" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B310" s="7" t="s">
         <v>87</v>
@@ -7319,7 +7319,7 @@
     </row>
     <row r="311" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A311" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B311" s="7" t="s">
         <v>45</v>
@@ -7333,10 +7333,10 @@
     </row>
     <row r="312" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A312" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C312">
         <v>690</v>
@@ -7347,7 +7347,7 @@
     </row>
     <row r="313" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A313" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B313" s="7" t="s">
         <v>31</v>
@@ -7361,10 +7361,10 @@
     </row>
     <row r="314" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A314" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C314">
         <v>758</v>
@@ -7375,10 +7375,10 @@
     </row>
     <row r="315" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A315" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C315">
         <v>739</v>
@@ -7389,10 +7389,10 @@
     </row>
     <row r="316" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A316" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C316">
         <v>594</v>
@@ -7403,10 +7403,10 @@
     </row>
     <row r="317" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A317" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C317">
         <v>864</v>
@@ -7417,10 +7417,10 @@
     </row>
     <row r="318" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A318" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C318">
         <v>1923</v>
@@ -7431,7 +7431,7 @@
     </row>
     <row r="319" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A319" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B319" s="7" t="s">
         <v>45</v>
@@ -7445,7 +7445,7 @@
     </row>
     <row r="320" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A320" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B320" s="7" t="s">
         <v>31</v>
@@ -7459,7 +7459,7 @@
     </row>
     <row r="321" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A321" s="11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B321" s="7" t="s">
         <v>166</v>
@@ -7473,10 +7473,10 @@
     </row>
     <row r="322" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A322" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C322">
         <v>5832</v>
@@ -7487,10 +7487,10 @@
     </row>
     <row r="323" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A323" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C323">
         <v>593</v>
@@ -7501,10 +7501,10 @@
     </row>
     <row r="324" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A324" s="11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C324">
         <v>585</v>
@@ -7515,7 +7515,7 @@
     </row>
     <row r="325" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A325" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B325" s="7" t="s">
         <v>166</v>
@@ -7529,10 +7529,10 @@
     </row>
     <row r="326" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A326" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C326">
         <v>596</v>
@@ -7543,7 +7543,7 @@
     </row>
     <row r="327" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A327" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B327" s="7" t="s">
         <v>15</v>
@@ -7557,7 +7557,7 @@
     </row>
     <row r="328" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A328" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B328" s="7" t="s">
         <v>23</v>
@@ -7571,10 +7571,10 @@
     </row>
     <row r="329" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A329" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C329">
         <v>345</v>
@@ -7585,10 +7585,10 @@
     </row>
     <row r="330" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A330" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C330">
         <v>8</v>
@@ -7599,10 +7599,10 @@
     </row>
     <row r="331" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A331" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C331">
         <v>438</v>
@@ -7613,10 +7613,10 @@
     </row>
     <row r="332" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A332" s="11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C332">
         <v>59</v>
@@ -7627,7 +7627,7 @@
     </row>
     <row r="333" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A333" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B333" s="7" t="s">
         <v>27</v>
@@ -7641,10 +7641,10 @@
     </row>
     <row r="334" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A334" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B334" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C334">
         <v>92</v>
@@ -7655,10 +7655,10 @@
     </row>
     <row r="335" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A335" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C335">
         <v>5</v>
@@ -7669,10 +7669,10 @@
     </row>
     <row r="336" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A336" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C336">
         <v>28</v>
@@ -7683,10 +7683,10 @@
     </row>
     <row r="337" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A337" s="11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C337">
         <v>958</v>
@@ -7697,7 +7697,7 @@
     </row>
     <row r="338" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A338" s="11" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B338" s="7" t="s">
         <v>31</v>
@@ -7711,10 +7711,10 @@
     </row>
     <row r="339" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A339" s="11" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C339">
         <v>583</v>
@@ -7725,10 +7725,10 @@
     </row>
     <row r="340" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A340" s="11" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C340">
         <v>732</v>
@@ -7739,7 +7739,7 @@
     </row>
     <row r="341" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A341" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B341" s="7" t="s">
         <v>19</v>
@@ -7753,10 +7753,10 @@
     </row>
     <row r="342" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A342" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C342">
         <v>23</v>
@@ -7767,10 +7767,10 @@
     </row>
     <row r="343" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A343" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C343">
         <v>84</v>
@@ -7781,10 +7781,10 @@
     </row>
     <row r="344" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A344" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C344">
         <v>329</v>
@@ -7795,10 +7795,10 @@
     </row>
     <row r="345" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A345" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C345">
         <v>580</v>
@@ -7809,10 +7809,10 @@
     </row>
     <row r="346" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A346" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C346">
         <v>5948</v>
@@ -7823,10 +7823,10 @@
     </row>
     <row r="347" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A347" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C347">
         <v>4839</v>
@@ -7837,10 +7837,10 @@
     </row>
     <row r="348" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A348" s="11" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C348">
         <v>238</v>
@@ -7851,10 +7851,10 @@
     </row>
     <row r="349" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A349" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C349">
         <v>1239</v>
@@ -7865,7 +7865,7 @@
     </row>
     <row r="350" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A350" s="11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B350" s="7" t="s">
         <v>19</v>
@@ -7879,10 +7879,10 @@
     </row>
     <row r="351" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A351" s="11" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C351">
         <v>384</v>
@@ -7893,7 +7893,7 @@
     </row>
     <row r="352" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A352" s="11" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B352" s="7" t="s">
         <v>45</v>

--- a/outline_testing/map_test_data.xlsx
+++ b/outline_testing/map_test_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Ellison\Desktop\CodeForGood\outline_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9297D475-FE37-460D-922A-F5B2D4FD115D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F9A0EF-4A0F-4132-BB6D-77666D3B63F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{D5CD3BF6-7BDC-4B99-BDC7-1E82915A4C9A}"/>
   </bookViews>
@@ -2963,10 +2963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE39C63-2E3D-4C18-AAF5-D0A4B6862FF8}">
-  <dimension ref="A1:D352"/>
+  <dimension ref="A1:H352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2977,7 +2977,7 @@
     <col min="4" max="4" width="29.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -2999,13 +2999,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1234</v>
+        <v>1923232839</v>
       </c>
       <c r="D2">
         <v>22498</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="H2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -3019,7 +3022,7 @@
         <v>29649</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -3033,7 +3036,7 @@
         <v>21344</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -3047,7 +3050,7 @@
         <v>29035</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -3061,7 +3064,7 @@
         <v>25239</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -3075,7 +3078,7 @@
         <v>24364</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -3089,7 +3092,7 @@
         <v>29250</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -3103,7 +3106,7 @@
         <v>23439</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
@@ -3117,7 +3120,7 @@
         <v>25323</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -3131,7 +3134,7 @@
         <v>26610</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
@@ -3145,7 +3148,7 @@
         <v>24955</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
@@ -3159,7 +3162,7 @@
         <v>22488</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
@@ -3173,7 +3176,7 @@
         <v>26633</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
@@ -3187,7 +3190,7 @@
         <v>22455</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
